--- a/250/Report_250.xlsx
+++ b/250/Report_250.xlsx
@@ -341,254 +341,254 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>8022</v>
+        <v>7005.75</v>
       </c>
       <c r="B1">
-        <v>7603.5</v>
+        <v>11264.875</v>
       </c>
       <c r="C1">
-        <v>105.25</v>
+        <v>856.125</v>
       </c>
       <c r="D1">
-        <v>18101.25</v>
+        <v>19264.25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7851.875</v>
+        <v>7969.875</v>
       </c>
       <c r="B2">
-        <v>7764.125</v>
+        <v>10460.25</v>
       </c>
       <c r="C2">
-        <v>111.5</v>
+        <v>847.875</v>
       </c>
       <c r="D2">
-        <v>18443</v>
+        <v>19958.125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9184.5</v>
+        <v>9736.875</v>
       </c>
       <c r="B3">
-        <v>7053.75</v>
+        <v>12087.125</v>
       </c>
       <c r="C3">
-        <v>115.125</v>
+        <v>775</v>
       </c>
       <c r="D3">
-        <v>21580.125</v>
+        <v>23457.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7398.375</v>
+        <v>7900</v>
       </c>
       <c r="B4">
-        <v>7548.125</v>
+        <v>10825.125</v>
       </c>
       <c r="C4">
-        <v>176.625</v>
+        <v>1188.625</v>
       </c>
       <c r="D4">
-        <v>19466.5</v>
+        <v>23045.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7575.875</v>
+        <v>7296.875</v>
       </c>
       <c r="B5">
-        <v>7402</v>
+        <v>9515.75</v>
       </c>
       <c r="C5">
-        <v>163.125</v>
+        <v>1019.25</v>
       </c>
       <c r="D5">
-        <v>18045.75</v>
+        <v>19653.125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6728.25</v>
+        <v>7899.375</v>
       </c>
       <c r="B6">
-        <v>8794.875</v>
+        <v>12721</v>
       </c>
       <c r="C6">
-        <v>133.25</v>
+        <v>877.875</v>
       </c>
       <c r="D6">
-        <v>21691.875</v>
+        <v>25143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7909.375</v>
+        <v>8221.375</v>
       </c>
       <c r="B7">
-        <v>7250.25</v>
+        <v>10178</v>
       </c>
       <c r="C7">
-        <v>81</v>
+        <v>779.625</v>
       </c>
       <c r="D7">
-        <v>19595.5</v>
+        <v>21152.625</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7841.375</v>
+        <v>8704.5</v>
       </c>
       <c r="B8">
-        <v>6696.25</v>
+        <v>10176.375</v>
       </c>
       <c r="C8">
-        <v>102.625</v>
+        <v>875.5</v>
       </c>
       <c r="D8">
-        <v>18527.5</v>
+        <v>21422.125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9745.375</v>
+        <v>10428.25</v>
       </c>
       <c r="B9">
-        <v>7055.25</v>
+        <v>11392.25</v>
       </c>
       <c r="C9">
-        <v>112.5</v>
+        <v>847</v>
       </c>
       <c r="D9">
-        <v>17209.625</v>
+        <v>20087</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7224.25</v>
+        <v>8692</v>
       </c>
       <c r="B10">
-        <v>7478</v>
+        <v>11373.25</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>657.625</v>
       </c>
       <c r="D10">
-        <v>19885.875</v>
+        <v>22330.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7606.75</v>
+        <v>8396.125</v>
       </c>
       <c r="B11">
-        <v>7500.875</v>
+        <v>10620.375</v>
       </c>
       <c r="C11">
-        <v>146.125</v>
+        <v>883.875</v>
       </c>
       <c r="D11">
-        <v>21329.375</v>
+        <v>22416</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7332.375</v>
+        <v>7944.375</v>
       </c>
       <c r="B12">
-        <v>8344.375</v>
+        <v>12428.625</v>
       </c>
       <c r="C12">
-        <v>152.25</v>
+        <v>1002.625</v>
       </c>
       <c r="D12">
-        <v>19950.5</v>
+        <v>22863.375</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7494.75</v>
+        <v>8401.625</v>
       </c>
       <c r="B13">
-        <v>5235.5</v>
+        <v>8417.625</v>
       </c>
       <c r="C13">
-        <v>257.125</v>
+        <v>1529.125</v>
       </c>
       <c r="D13">
-        <v>22327.625</v>
+        <v>23975.125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12183.125</v>
+        <v>12357.875</v>
       </c>
       <c r="B14">
-        <v>7014.875</v>
+        <v>10726.25</v>
       </c>
       <c r="C14">
-        <v>175.625</v>
+        <v>1068.875</v>
       </c>
       <c r="D14">
-        <v>17665.375</v>
+        <v>20343.625</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8448.625</v>
+        <v>8565.125</v>
       </c>
       <c r="B15">
-        <v>6058</v>
+        <v>10604.25</v>
       </c>
       <c r="C15">
-        <v>106</v>
+        <v>793.75</v>
       </c>
       <c r="D15">
-        <v>19987.75</v>
+        <v>22702.75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8012</v>
+        <v>7925.75</v>
       </c>
       <c r="B16">
-        <v>6796.75</v>
+        <v>9223.625</v>
       </c>
       <c r="C16">
-        <v>179.75</v>
+        <v>1357.125</v>
       </c>
       <c r="D16">
-        <v>17949.625</v>
+        <v>20292.125</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9945.125</v>
+        <v>10233</v>
       </c>
       <c r="B17">
-        <v>7230.375</v>
+        <v>12305.125</v>
       </c>
       <c r="C17">
-        <v>172.125</v>
+        <v>1089.5</v>
       </c>
       <c r="D17">
-        <v>18594.75</v>
+        <v>21896.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9377.375</v>
+        <v>9362.75</v>
       </c>
       <c r="B18">
-        <v>8697.25</v>
+        <v>13276.75</v>
       </c>
       <c r="C18">
-        <v>257.625</v>
+        <v>1365.125</v>
       </c>
       <c r="D18">
-        <v>21060</v>
+        <v>24743.25</v>
       </c>
     </row>
   </sheetData>
